--- a/public/assets/files/Caneva.xlsx
+++ b/public/assets/files/Caneva.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp 640 I5\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp 640 I5\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E6C27-2E92-4338-BA18-F20C12E4D62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F59AE5-598E-44B3-BFC5-32FF92943820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{127DCBC4-3EDB-449A-B394-93D83B706379}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D528A1CB-D8BF-4026-8010-A61A3B5885A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>CodeCDT</t>
+  </si>
   <si>
     <t>Civ</t>
   </si>
@@ -66,62 +72,25 @@
     <t>Statut CDT</t>
   </si>
   <si>
+    <t>Spécialité</t>
+  </si>
+  <si>
+    <t>Domaine</t>
+  </si>
+  <si>
     <t>Poste</t>
-  </si>
-  <si>
-    <t>Spécialité</t>
-  </si>
-  <si>
-    <t>Domaine</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Razak</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Dévéloppeur</t>
-  </si>
-  <si>
-    <t>Informaticien</t>
-  </si>
-  <si>
-    <t>Informatique</t>
-  </si>
-  <si>
-    <t>HARMEN &amp; BOTTS</t>
-  </si>
-  <si>
-    <t>razak@gmail,com</t>
-  </si>
-  <si>
-    <t>razak,com</t>
-  </si>
-  <si>
-    <t>Ouagadougou</t>
-  </si>
-  <si>
-    <t>Kadiogo</t>
-  </si>
-  <si>
-    <t>1 jours</t>
-  </si>
-  <si>
-    <t>Open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0#&quot; &quot;##&quot; &quot;##&quot; &quot;##&quot; &quot;##"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0#&quot; &quot;##&quot; &quot;##&quot; &quot;##&quot; &quot;##"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,14 +99,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -146,6 +107,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -159,19 +132,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -198,33 +225,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+    <cellStyle name="Lien hypertexte 2" xfId="2" xr:uid="{A6E33689-9C2B-436B-9FE0-F2EBD6A0322B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4268729B-44E3-4485-BA45-FC24722F55D6}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4A90657B-CE62-4903-B23F-ADC731A9D76B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -237,6 +320,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DEDE631F-A23A-4C2B-B9A8-20FDAA151F4F}" name="Tableau4" displayName="Tableau4" ref="A1:R2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:R2" xr:uid="{DEDE631F-A23A-4C2B-B9A8-20FDAA151F4F}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{2831F76F-8773-4ACF-8B7D-8B777CFEDC8E}" name="Source"/>
+    <tableColumn id="2" xr3:uid="{B8941B32-2D72-410E-98F0-6FEFAA467A75}" name="CodeCDT"/>
+    <tableColumn id="3" xr3:uid="{E00595A5-3C9D-46C3-8DAC-924BA024C380}" name="Civ"/>
+    <tableColumn id="4" xr3:uid="{746F9219-CA19-4FFE-81F5-9A7206D27773}" name="Prénom"/>
+    <tableColumn id="5" xr3:uid="{DAFD13D3-CCB4-48FE-A32D-5064BCAFF585}" name="Nom"/>
+    <tableColumn id="6" xr3:uid="{33767266-BA05-445C-BC32-D4E2830CDDA2}" name="Poste"/>
+    <tableColumn id="7" xr3:uid="{D5131917-A3A7-463B-85CE-21AA2978C74E}" name="Spécialité"/>
+    <tableColumn id="8" xr3:uid="{B74DCFE8-D118-46A4-98E5-A562ECF5B934}" name="Domaine"/>
+    <tableColumn id="9" xr3:uid="{6E278DA8-B2E9-479D-BBD2-9B8656ED087E}" name="Société"/>
+    <tableColumn id="10" xr3:uid="{458F22F1-4BDB-43FA-A95E-CC98F3F2665F}" name="Mail"/>
+    <tableColumn id="11" xr3:uid="{128843FE-1AEB-4DCD-8476-7D51FE372754}" name="Tél1"/>
+    <tableColumn id="12" xr3:uid="{0F537049-38E8-4D18-A65E-356EAF3E079E}" name="Tél2"/>
+    <tableColumn id="13" xr3:uid="{CC1609BE-04AD-4080-A370-5DE1612D73B9}" name="UrlCTC"/>
+    <tableColumn id="14" xr3:uid="{F39282C3-24AC-478A-9EB3-179F33619D09}" name="CP/Dpt"/>
+    <tableColumn id="15" xr3:uid="{C1F295F9-B8FF-47CC-A8DC-4E009DEFD6C3}" name="Ville"/>
+    <tableColumn id="16" xr3:uid="{B7FAA2E6-E222-4C78-9DAB-DFBD67733A65}" name="Région"/>
+    <tableColumn id="17" xr3:uid="{7A73554B-8C8C-40C6-8C24-6C6E806C3F8E}" name="Disponibilité"/>
+    <tableColumn id="18" xr3:uid="{62ED9404-09D9-40CF-9148-B2123A28A306}" name="Statut CDT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,122 +645,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65A461B-9BFC-42B6-8382-0E238B19B403}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E66427-4452-44DA-9A64-B8586DE690B2}">
+  <dimension ref="A1:BX2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>70147315</v>
-      </c>
-      <c r="J2">
-        <v>57801583</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2">
-        <v>85204568</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{0444A309-2F9F-43E4-9570-3CD0996AEB18}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>